--- a/calibrations/211014_Calibrations_mammals_72sp.xlsx
+++ b/calibrations/211014_Calibrations_mammals_72sp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synched_Dropbox\Dropbox\PhD_backup\02_Mammals\000_MAMMALS_GITHUB_DIR\mammals_dating\calibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474EE5F6-561D-48C9-8943-C939AAF9FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB603255-B461-4197-9E2E-BC5F4F46D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57960" yWindow="720" windowWidth="28260" windowHeight="11910" xr2:uid="{F5F90D7F-8969-4CB4-B4E2-8CC3DB74F797}"/>
   </bookViews>
@@ -5759,7 +5759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5959,12 +5959,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="23">
@@ -7332,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA58086-C186-4A4F-AE49-F68A7B9A237B}">
   <dimension ref="A1:BI137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN79" sqref="AN79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7343,26 +7337,25 @@
     <col min="3" max="3" width="59.7890625" customWidth="1"/>
     <col min="4" max="4" width="57.15625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="9.20703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.05078125" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="34.3671875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.05078125" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="34.83984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.05078125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.05078125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.41796875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="33.05078125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5234375" hidden="1" customWidth="1"/>
-    <col min="19" max="23" width="32.578125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26171875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="32.68359375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="17.68359375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="32.68359375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="29.3671875" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="29.62890625" hidden="1" customWidth="1"/>
-    <col min="32" max="37" width="29.3671875" hidden="1" customWidth="1"/>
-    <col min="38" max="49" width="29.3671875" customWidth="1"/>
+    <col min="6" max="6" width="9.20703125" customWidth="1"/>
+    <col min="7" max="7" width="20.83984375" customWidth="1"/>
+    <col min="8" max="8" width="17.05078125" customWidth="1"/>
+    <col min="9" max="10" width="34.3671875" customWidth="1"/>
+    <col min="11" max="11" width="17.05078125" customWidth="1"/>
+    <col min="12" max="13" width="34.83984375" customWidth="1"/>
+    <col min="14" max="14" width="17.05078125" customWidth="1"/>
+    <col min="15" max="15" width="33.05078125" customWidth="1"/>
+    <col min="16" max="16" width="15.41796875" customWidth="1"/>
+    <col min="17" max="17" width="33.05078125" customWidth="1"/>
+    <col min="18" max="18" width="20.5234375" customWidth="1"/>
+    <col min="19" max="23" width="32.578125" customWidth="1"/>
+    <col min="24" max="24" width="13.26171875" customWidth="1"/>
+    <col min="25" max="25" width="32.68359375" customWidth="1"/>
+    <col min="26" max="26" width="17.68359375" customWidth="1"/>
+    <col min="27" max="27" width="32.68359375" customWidth="1"/>
+    <col min="28" max="28" width="29.3671875" customWidth="1"/>
+    <col min="29" max="31" width="29.62890625" customWidth="1"/>
+    <col min="32" max="49" width="29.3671875" customWidth="1"/>
     <col min="50" max="50" width="2.89453125" customWidth="1"/>
     <col min="51" max="51" width="29.9453125" customWidth="1"/>
     <col min="52" max="55" width="19.734375" customWidth="1"/>
